--- a/app/people.xlsx
+++ b/app/people.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\tocha\ws\python-ref\automated-emails\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EFECCC-DE96-4985-A187-7CD11CFBC58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71FF549-F67B-457F-925A-064479AB86B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>Kann</t>
   </si>
   <si>
-    <t>tochaeluz@gmail.com</t>
-  </si>
-  <si>
     <t>tech</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>jxyfsbtcb@laste.ml</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1580,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -1616,7 +1616,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>6</v>
@@ -1631,7 +1631,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>8</v>
@@ -1646,10 +1646,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="7"/>
     </row>
